--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc104_I2_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc104_I2_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2390" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3574" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -390,10 +402,10 @@
       <c r="I9">
         <f>((C9-C8)^2+(D9- D8)^2)^.5</f>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="2" t="s">
+      <c r="J9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L9" t="n">
@@ -437,28 +449,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="2">
+      <c r="A11" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B11" t="s" s="2">
+      <c r="B11" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C11" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s" s="2">
+      <c r="C11" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E11" t="s" s="2">
+      <c r="E11" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F11" t="s" s="2">
+      <c r="F11" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G11" t="s" s="2">
+      <c r="G11" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H11" t="s" s="2">
+      <c r="H11" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -483,28 +495,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="B13" t="s" s="2">
+      <c r="B13" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C13" t="s" s="2">
+      <c r="C13" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D13" t="s" s="2">
+      <c r="D13" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E13" t="s" s="2">
+      <c r="E13" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F13" t="s" s="2">
+      <c r="F13" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G13" t="s" s="2">
+      <c r="G13" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H13" t="s" s="2">
+      <c r="H13" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I13" t="s" s="2">
+      <c r="I13" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -592,10 +604,10 @@
       <c r="I16">
         <f>((C16-C15)^2+(D16- D15)^2)^.5</f>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="2" t="s">
+      <c r="J16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L16" t="n">
@@ -639,28 +651,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="2">
+      <c r="A18" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B18" t="s" s="2">
+      <c r="B18" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C18" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s" s="2">
+      <c r="C18" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E18" t="s" s="2">
+      <c r="E18" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="F18" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G18" t="s" s="2">
+      <c r="G18" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H18" t="s" s="2">
+      <c r="H18" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -685,28 +697,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" t="s" s="2">
+      <c r="B20" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C20" t="s" s="2">
+      <c r="C20" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D20" t="s" s="2">
+      <c r="D20" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E20" t="s" s="2">
+      <c r="E20" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F20" t="s" s="2">
+      <c r="F20" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G20" t="s" s="2">
+      <c r="G20" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H20" t="s" s="2">
+      <c r="H20" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I20" t="s" s="2">
+      <c r="I20" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -852,10 +864,10 @@
       <c r="I25">
         <f>((C25-C24)^2+(D25- D24)^2)^.5</f>
       </c>
-      <c r="J25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K25" s="2" t="s">
+      <c r="J25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L25" t="n">
@@ -899,28 +911,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s" s="2">
+      <c r="A27" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B27" t="s" s="2">
+      <c r="B27" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C27" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D27" t="s" s="2">
+      <c r="C27" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E27" t="s" s="2">
+      <c r="E27" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F27" t="s" s="2">
+      <c r="F27" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G27" t="s" s="2">
+      <c r="G27" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H27" t="s" s="2">
+      <c r="H27" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -945,28 +957,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="B29" t="s" s="2">
+      <c r="B29" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C29" t="s" s="2">
+      <c r="C29" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D29" t="s" s="2">
+      <c r="D29" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E29" t="s" s="2">
+      <c r="E29" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F29" t="s" s="2">
+      <c r="F29" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G29" t="s" s="2">
+      <c r="G29" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H29" t="s" s="2">
+      <c r="H29" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I29" t="s" s="2">
+      <c r="I29" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1141,10 +1153,10 @@
       <c r="I35">
         <f>((C35-C34)^2+(D35- D34)^2)^.5</f>
       </c>
-      <c r="J35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K35" s="2" t="s">
+      <c r="J35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K35" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L35" t="n">
@@ -1188,28 +1200,28 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s" s="2">
+      <c r="A37" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B37" t="s" s="2">
+      <c r="B37" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C37" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D37" t="s" s="2">
+      <c r="C37" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E37" t="s" s="2">
+      <c r="E37" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F37" t="s" s="2">
+      <c r="F37" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G37" t="s" s="2">
+      <c r="G37" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H37" t="s" s="2">
+      <c r="H37" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1234,28 +1246,28 @@
       </c>
     </row>
     <row r="39">
-      <c r="B39" t="s" s="2">
+      <c r="B39" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C39" t="s" s="2">
+      <c r="C39" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D39" t="s" s="2">
+      <c r="D39" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E39" t="s" s="2">
+      <c r="E39" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F39" t="s" s="2">
+      <c r="F39" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G39" t="s" s="2">
+      <c r="G39" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H39" t="s" s="2">
+      <c r="H39" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I39" t="s" s="2">
+      <c r="I39" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1372,10 +1384,10 @@
       <c r="I43">
         <f>((C43-C42)^2+(D43- D42)^2)^.5</f>
       </c>
-      <c r="J43" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" s="2" t="s">
+      <c r="J43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L43" t="n">
@@ -1419,28 +1431,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="2">
+      <c r="A45" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B45" t="s" s="2">
+      <c r="B45" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C45" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D45" t="s" s="2">
+      <c r="C45" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E45" t="s" s="2">
+      <c r="E45" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F45" t="s" s="2">
+      <c r="F45" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G45" t="s" s="2">
+      <c r="G45" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H45" t="s" s="2">
+      <c r="H45" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1465,28 +1477,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="B47" t="s" s="2">
+      <c r="B47" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C47" t="s" s="2">
+      <c r="C47" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D47" t="s" s="2">
+      <c r="D47" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E47" t="s" s="2">
+      <c r="E47" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F47" t="s" s="2">
+      <c r="F47" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G47" t="s" s="2">
+      <c r="G47" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H47" t="s" s="2">
+      <c r="H47" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I47" t="s" s="2">
+      <c r="I47" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1690,10 +1702,10 @@
       <c r="I54">
         <f>((C54-C53)^2+(D54- D53)^2)^.5</f>
       </c>
-      <c r="J54" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K54" s="2" t="s">
+      <c r="J54" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K54" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L54" t="n">
@@ -1737,28 +1749,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="s" s="2">
+      <c r="A56" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B56" t="s" s="2">
+      <c r="B56" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C56" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D56" t="s" s="2">
+      <c r="C56" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D56" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E56" t="s" s="2">
+      <c r="E56" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F56" t="s" s="2">
+      <c r="F56" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G56" t="s" s="2">
+      <c r="G56" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H56" t="s" s="2">
+      <c r="H56" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1783,28 +1795,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="B58" t="s" s="2">
+      <c r="B58" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C58" t="s" s="2">
+      <c r="C58" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D58" t="s" s="2">
+      <c r="D58" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E58" t="s" s="2">
+      <c r="E58" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F58" t="s" s="2">
+      <c r="F58" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G58" t="s" s="2">
+      <c r="G58" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H58" t="s" s="2">
+      <c r="H58" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I58" t="s" s="2">
+      <c r="I58" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1950,10 +1962,10 @@
       <c r="I63">
         <f>((C63-C62)^2+(D63- D62)^2)^.5</f>
       </c>
-      <c r="J63" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K63" s="2" t="s">
+      <c r="J63" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K63" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L63" t="n">
@@ -1997,28 +2009,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="s" s="2">
+      <c r="A65" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B65" t="s" s="2">
+      <c r="B65" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C65" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D65" t="s" s="2">
+      <c r="C65" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D65" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E65" t="s" s="2">
+      <c r="E65" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F65" t="s" s="2">
+      <c r="F65" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G65" t="s" s="2">
+      <c r="G65" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H65" t="s" s="2">
+      <c r="H65" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2043,28 +2055,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="B67" t="s" s="2">
+      <c r="B67" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C67" t="s" s="2">
+      <c r="C67" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D67" t="s" s="2">
+      <c r="D67" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E67" t="s" s="2">
+      <c r="E67" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F67" t="s" s="2">
+      <c r="F67" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G67" t="s" s="2">
+      <c r="G67" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H67" t="s" s="2">
+      <c r="H67" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I67" t="s" s="2">
+      <c r="I67" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2210,10 +2222,10 @@
       <c r="I72">
         <f>((C72-C71)^2+(D72- D71)^2)^.5</f>
       </c>
-      <c r="J72" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K72" s="2" t="s">
+      <c r="J72" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K72" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L72" t="n">
@@ -2257,28 +2269,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="s" s="2">
+      <c r="A74" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B74" t="s" s="2">
+      <c r="B74" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C74" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D74" t="s" s="2">
+      <c r="C74" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D74" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E74" t="s" s="2">
+      <c r="E74" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F74" t="s" s="2">
+      <c r="F74" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G74" t="s" s="2">
+      <c r="G74" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H74" t="s" s="2">
+      <c r="H74" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2303,28 +2315,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="B76" t="s" s="2">
+      <c r="B76" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C76" t="s" s="2">
+      <c r="C76" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D76" t="s" s="2">
+      <c r="D76" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E76" t="s" s="2">
+      <c r="E76" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F76" t="s" s="2">
+      <c r="F76" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G76" t="s" s="2">
+      <c r="G76" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H76" t="s" s="2">
+      <c r="H76" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I76" t="s" s="2">
+      <c r="I76" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2470,10 +2482,10 @@
       <c r="I81">
         <f>((C81-C80)^2+(D81- D80)^2)^.5</f>
       </c>
-      <c r="J81" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K81" s="2" t="s">
+      <c r="J81" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K81" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L81" t="n">
@@ -2517,28 +2529,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="s" s="2">
+      <c r="A83" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B83" t="s" s="2">
+      <c r="B83" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C83" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D83" t="s" s="2">
+      <c r="C83" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D83" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E83" t="s" s="2">
+      <c r="E83" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F83" t="s" s="2">
+      <c r="F83" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G83" t="s" s="2">
+      <c r="G83" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H83" t="s" s="2">
+      <c r="H83" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2563,28 +2575,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="B85" t="s" s="2">
+      <c r="B85" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C85" t="s" s="2">
+      <c r="C85" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D85" t="s" s="2">
+      <c r="D85" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E85" t="s" s="2">
+      <c r="E85" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F85" t="s" s="2">
+      <c r="F85" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G85" t="s" s="2">
+      <c r="G85" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H85" t="s" s="2">
+      <c r="H85" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I85" t="s" s="2">
+      <c r="I85" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2672,10 +2684,10 @@
       <c r="I88">
         <f>((C88-C87)^2+(D88- D87)^2)^.5</f>
       </c>
-      <c r="J88" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K88" s="2" t="s">
+      <c r="J88" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K88" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L88" t="n">
@@ -2719,28 +2731,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="s" s="2">
+      <c r="A90" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B90" t="s" s="2">
+      <c r="B90" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C90" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D90" t="s" s="2">
+      <c r="C90" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D90" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E90" t="s" s="2">
+      <c r="E90" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F90" t="s" s="2">
+      <c r="F90" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G90" t="s" s="2">
+      <c r="G90" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H90" t="s" s="2">
+      <c r="H90" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2765,28 +2777,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="B92" t="s" s="2">
+      <c r="B92" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C92" t="s" s="2">
+      <c r="C92" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D92" t="s" s="2">
+      <c r="D92" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E92" t="s" s="2">
+      <c r="E92" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F92" t="s" s="2">
+      <c r="F92" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G92" t="s" s="2">
+      <c r="G92" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H92" t="s" s="2">
+      <c r="H92" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I92" t="s" s="2">
+      <c r="I92" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3077,10 +3089,10 @@
       <c r="I102">
         <f>((C102-C101)^2+(D102- D101)^2)^.5</f>
       </c>
-      <c r="J102" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K102" s="2" t="s">
+      <c r="J102" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K102" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L102" t="n">
@@ -3124,28 +3136,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="s" s="2">
+      <c r="A104" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B104" t="s" s="2">
+      <c r="B104" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C104" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D104" t="s" s="2">
+      <c r="C104" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D104" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E104" t="s" s="2">
+      <c r="E104" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F104" t="s" s="2">
+      <c r="F104" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G104" t="s" s="2">
+      <c r="G104" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H104" t="s" s="2">
+      <c r="H104" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3170,28 +3182,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="B106" t="s" s="2">
+      <c r="B106" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C106" t="s" s="2">
+      <c r="C106" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D106" t="s" s="2">
+      <c r="D106" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E106" t="s" s="2">
+      <c r="E106" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F106" t="s" s="2">
+      <c r="F106" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G106" t="s" s="2">
+      <c r="G106" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H106" t="s" s="2">
+      <c r="H106" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I106" t="s" s="2">
+      <c r="I106" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3482,10 +3494,10 @@
       <c r="I116">
         <f>((C116-C115)^2+(D116- D115)^2)^.5</f>
       </c>
-      <c r="J116" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K116" s="2" t="s">
+      <c r="J116" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K116" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L116" t="n">
@@ -3529,28 +3541,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="s" s="2">
+      <c r="A118" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B118" t="s" s="2">
+      <c r="B118" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C118" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D118" t="s" s="2">
+      <c r="C118" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D118" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E118" t="s" s="2">
+      <c r="E118" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F118" t="s" s="2">
+      <c r="F118" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G118" t="s" s="2">
+      <c r="G118" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H118" t="s" s="2">
+      <c r="H118" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3575,28 +3587,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="B120" t="s" s="2">
+      <c r="B120" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C120" t="s" s="2">
+      <c r="C120" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D120" t="s" s="2">
+      <c r="D120" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E120" t="s" s="2">
+      <c r="E120" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F120" t="s" s="2">
+      <c r="F120" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G120" t="s" s="2">
+      <c r="G120" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H120" t="s" s="2">
+      <c r="H120" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I120" t="s" s="2">
+      <c r="I120" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3713,10 +3725,10 @@
       <c r="I124">
         <f>((C124-C123)^2+(D124- D123)^2)^.5</f>
       </c>
-      <c r="J124" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K124" s="2" t="s">
+      <c r="J124" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K124" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L124" t="n">
@@ -3760,28 +3772,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="s" s="2">
+      <c r="A126" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B126" t="s" s="2">
+      <c r="B126" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C126" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D126" t="s" s="2">
+      <c r="C126" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D126" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E126" t="s" s="2">
+      <c r="E126" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F126" t="s" s="2">
+      <c r="F126" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G126" t="s" s="2">
+      <c r="G126" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H126" t="s" s="2">
+      <c r="H126" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3806,28 +3818,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="B128" t="s" s="2">
+      <c r="B128" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C128" t="s" s="2">
+      <c r="C128" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D128" t="s" s="2">
+      <c r="D128" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E128" t="s" s="2">
+      <c r="E128" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F128" t="s" s="2">
+      <c r="F128" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G128" t="s" s="2">
+      <c r="G128" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H128" t="s" s="2">
+      <c r="H128" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I128" t="s" s="2">
+      <c r="I128" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3944,10 +3956,10 @@
       <c r="I132">
         <f>((C132-C131)^2+(D132- D131)^2)^.5</f>
       </c>
-      <c r="J132" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K132" s="2" t="s">
+      <c r="J132" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K132" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L132" t="n">
@@ -3991,28 +4003,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="s" s="2">
+      <c r="A134" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B134" t="s" s="2">
+      <c r="B134" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C134" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D134" t="s" s="2">
+      <c r="C134" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D134" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E134" t="s" s="2">
+      <c r="E134" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F134" t="s" s="2">
+      <c r="F134" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G134" t="s" s="2">
+      <c r="G134" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H134" t="s" s="2">
+      <c r="H134" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4037,28 +4049,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="B136" t="s" s="2">
+      <c r="B136" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C136" t="s" s="2">
+      <c r="C136" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D136" t="s" s="2">
+      <c r="D136" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E136" t="s" s="2">
+      <c r="E136" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F136" t="s" s="2">
+      <c r="F136" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G136" t="s" s="2">
+      <c r="G136" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H136" t="s" s="2">
+      <c r="H136" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I136" t="s" s="2">
+      <c r="I136" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4146,10 +4158,10 @@
       <c r="I139">
         <f>((C139-C138)^2+(D139- D138)^2)^.5</f>
       </c>
-      <c r="J139" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K139" s="2" t="s">
+      <c r="J139" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K139" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L139" t="n">
@@ -4193,28 +4205,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="s" s="2">
+      <c r="A141" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B141" t="s" s="2">
+      <c r="B141" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C141" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D141" t="s" s="2">
+      <c r="C141" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D141" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E141" t="s" s="2">
+      <c r="E141" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F141" t="s" s="2">
+      <c r="F141" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G141" t="s" s="2">
+      <c r="G141" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H141" t="s" s="2">
+      <c r="H141" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4239,28 +4251,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="B143" t="s" s="2">
+      <c r="B143" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C143" t="s" s="2">
+      <c r="C143" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D143" t="s" s="2">
+      <c r="D143" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E143" t="s" s="2">
+      <c r="E143" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F143" t="s" s="2">
+      <c r="F143" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G143" t="s" s="2">
+      <c r="G143" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H143" t="s" s="2">
+      <c r="H143" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I143" t="s" s="2">
+      <c r="I143" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4348,10 +4360,10 @@
       <c r="I146">
         <f>((C146-C145)^2+(D146- D145)^2)^.5</f>
       </c>
-      <c r="J146" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K146" s="2" t="s">
+      <c r="J146" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K146" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L146" t="n">
@@ -4395,28 +4407,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="s" s="2">
+      <c r="A148" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B148" t="s" s="2">
+      <c r="B148" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C148" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D148" t="s" s="2">
+      <c r="C148" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D148" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E148" t="s" s="2">
+      <c r="E148" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F148" t="s" s="2">
+      <c r="F148" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G148" t="s" s="2">
+      <c r="G148" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H148" t="s" s="2">
+      <c r="H148" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4441,28 +4453,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="B150" t="s" s="2">
+      <c r="B150" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C150" t="s" s="2">
+      <c r="C150" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D150" t="s" s="2">
+      <c r="D150" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E150" t="s" s="2">
+      <c r="E150" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F150" t="s" s="2">
+      <c r="F150" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G150" t="s" s="2">
+      <c r="G150" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H150" t="s" s="2">
+      <c r="H150" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I150" t="s" s="2">
+      <c r="I150" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4521,10 +4533,10 @@
       <c r="I152">
         <f>((C152-C151)^2+(D152- D151)^2)^.5</f>
       </c>
-      <c r="J152" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K152" s="2" t="s">
+      <c r="J152" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K152" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L152" t="n">
@@ -4568,28 +4580,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="s" s="2">
+      <c r="A154" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B154" t="s" s="2">
+      <c r="B154" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C154" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D154" t="s" s="2">
+      <c r="C154" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D154" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E154" t="s" s="2">
+      <c r="E154" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F154" t="s" s="2">
+      <c r="F154" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G154" t="s" s="2">
+      <c r="G154" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H154" t="s" s="2">
+      <c r="H154" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4614,28 +4626,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="B156" t="s" s="2">
+      <c r="B156" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C156" t="s" s="2">
+      <c r="C156" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D156" t="s" s="2">
+      <c r="D156" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E156" t="s" s="2">
+      <c r="E156" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F156" t="s" s="2">
+      <c r="F156" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G156" t="s" s="2">
+      <c r="G156" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H156" t="s" s="2">
+      <c r="H156" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I156" t="s" s="2">
+      <c r="I156" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4752,10 +4764,10 @@
       <c r="I160">
         <f>((C160-C159)^2+(D160- D159)^2)^.5</f>
       </c>
-      <c r="J160" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K160" s="2" t="s">
+      <c r="J160" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K160" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L160" t="n">
@@ -4799,28 +4811,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="s" s="2">
+      <c r="A162" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B162" t="s" s="2">
+      <c r="B162" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C162" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D162" t="s" s="2">
+      <c r="C162" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D162" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E162" t="s" s="2">
+      <c r="E162" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F162" t="s" s="2">
+      <c r="F162" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G162" t="s" s="2">
+      <c r="G162" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H162" t="s" s="2">
+      <c r="H162" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4845,28 +4857,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="B164" t="s" s="2">
+      <c r="B164" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C164" t="s" s="2">
+      <c r="C164" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D164" t="s" s="2">
+      <c r="D164" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E164" t="s" s="2">
+      <c r="E164" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F164" t="s" s="2">
+      <c r="F164" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G164" t="s" s="2">
+      <c r="G164" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H164" t="s" s="2">
+      <c r="H164" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I164" t="s" s="2">
+      <c r="I164" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4925,10 +4937,10 @@
       <c r="I166">
         <f>((C166-C165)^2+(D166- D165)^2)^.5</f>
       </c>
-      <c r="J166" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K166" s="2" t="s">
+      <c r="J166" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K166" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L166" t="n">
@@ -4972,28 +4984,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="s" s="2">
+      <c r="A168" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B168" t="s" s="2">
+      <c r="B168" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C168" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D168" t="s" s="2">
+      <c r="C168" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D168" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E168" t="s" s="2">
+      <c r="E168" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F168" t="s" s="2">
+      <c r="F168" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G168" t="s" s="2">
+      <c r="G168" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H168" t="s" s="2">
+      <c r="H168" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5018,28 +5030,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="B170" t="s" s="2">
+      <c r="B170" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C170" t="s" s="2">
+      <c r="C170" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D170" t="s" s="2">
+      <c r="D170" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E170" t="s" s="2">
+      <c r="E170" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F170" t="s" s="2">
+      <c r="F170" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G170" t="s" s="2">
+      <c r="G170" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H170" t="s" s="2">
+      <c r="H170" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I170" t="s" s="2">
+      <c r="I170" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5098,10 +5110,10 @@
       <c r="I172">
         <f>((C172-C171)^2+(D172- D171)^2)^.5</f>
       </c>
-      <c r="J172" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K172" s="2" t="s">
+      <c r="J172" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K172" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L172" t="n">
@@ -5145,28 +5157,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="s" s="2">
+      <c r="A174" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B174" t="s" s="2">
+      <c r="B174" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C174" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D174" t="s" s="2">
+      <c r="C174" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D174" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E174" t="s" s="2">
+      <c r="E174" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F174" t="s" s="2">
+      <c r="F174" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G174" t="s" s="2">
+      <c r="G174" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H174" t="s" s="2">
+      <c r="H174" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5191,28 +5203,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="B176" t="s" s="2">
+      <c r="B176" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C176" t="s" s="2">
+      <c r="C176" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D176" t="s" s="2">
+      <c r="D176" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E176" t="s" s="2">
+      <c r="E176" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F176" t="s" s="2">
+      <c r="F176" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G176" t="s" s="2">
+      <c r="G176" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H176" t="s" s="2">
+      <c r="H176" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I176" t="s" s="2">
+      <c r="I176" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5358,10 +5370,10 @@
       <c r="I181">
         <f>((C181-C180)^2+(D181- D180)^2)^.5</f>
       </c>
-      <c r="J181" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K181" s="2" t="s">
+      <c r="J181" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K181" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L181" t="n">
@@ -5405,28 +5417,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="s" s="2">
+      <c r="A183" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B183" t="s" s="2">
+      <c r="B183" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C183" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D183" t="s" s="2">
+      <c r="C183" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D183" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E183" t="s" s="2">
+      <c r="E183" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F183" t="s" s="2">
+      <c r="F183" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G183" t="s" s="2">
+      <c r="G183" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H183" t="s" s="2">
+      <c r="H183" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5451,28 +5463,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="B185" t="s" s="2">
+      <c r="B185" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C185" t="s" s="2">
+      <c r="C185" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D185" t="s" s="2">
+      <c r="D185" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E185" t="s" s="2">
+      <c r="E185" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F185" t="s" s="2">
+      <c r="F185" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G185" t="s" s="2">
+      <c r="G185" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H185" t="s" s="2">
+      <c r="H185" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I185" t="s" s="2">
+      <c r="I185" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5560,10 +5572,10 @@
       <c r="I188">
         <f>((C188-C187)^2+(D188- D187)^2)^.5</f>
       </c>
-      <c r="J188" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K188" s="2" t="s">
+      <c r="J188" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K188" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L188" t="n">
@@ -5607,28 +5619,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="s" s="2">
+      <c r="A190" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B190" t="s" s="2">
+      <c r="B190" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C190" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D190" t="s" s="2">
+      <c r="C190" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D190" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E190" t="s" s="2">
+      <c r="E190" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F190" t="s" s="2">
+      <c r="F190" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G190" t="s" s="2">
+      <c r="G190" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H190" t="s" s="2">
+      <c r="H190" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5653,28 +5665,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="B192" t="s" s="2">
+      <c r="B192" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C192" t="s" s="2">
+      <c r="C192" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D192" t="s" s="2">
+      <c r="D192" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E192" t="s" s="2">
+      <c r="E192" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F192" t="s" s="2">
+      <c r="F192" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G192" t="s" s="2">
+      <c r="G192" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H192" t="s" s="2">
+      <c r="H192" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I192" t="s" s="2">
+      <c r="I192" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5762,10 +5774,10 @@
       <c r="I195">
         <f>((C195-C194)^2+(D195- D194)^2)^.5</f>
       </c>
-      <c r="J195" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K195" s="2" t="s">
+      <c r="J195" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K195" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L195" t="n">
@@ -5809,28 +5821,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="s" s="2">
+      <c r="A197" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B197" t="s" s="2">
+      <c r="B197" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C197" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D197" t="s" s="2">
+      <c r="C197" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D197" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E197" t="s" s="2">
+      <c r="E197" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F197" t="s" s="2">
+      <c r="F197" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G197" t="s" s="2">
+      <c r="G197" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H197" t="s" s="2">
+      <c r="H197" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5855,28 +5867,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="B199" t="s" s="2">
+      <c r="B199" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C199" t="s" s="2">
+      <c r="C199" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D199" t="s" s="2">
+      <c r="D199" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E199" t="s" s="2">
+      <c r="E199" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F199" t="s" s="2">
+      <c r="F199" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G199" t="s" s="2">
+      <c r="G199" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H199" t="s" s="2">
+      <c r="H199" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I199" t="s" s="2">
+      <c r="I199" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6022,10 +6034,10 @@
       <c r="I204">
         <f>((C204-C203)^2+(D204- D203)^2)^.5</f>
       </c>
-      <c r="J204" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K204" s="2" t="s">
+      <c r="J204" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K204" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L204" t="n">
@@ -6069,28 +6081,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="s" s="2">
+      <c r="A206" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B206" t="s" s="2">
+      <c r="B206" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C206" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D206" t="s" s="2">
+      <c r="C206" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D206" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E206" t="s" s="2">
+      <c r="E206" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F206" t="s" s="2">
+      <c r="F206" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G206" t="s" s="2">
+      <c r="G206" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H206" t="s" s="2">
+      <c r="H206" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6115,28 +6127,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="B208" t="s" s="2">
+      <c r="B208" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C208" t="s" s="2">
+      <c r="C208" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D208" t="s" s="2">
+      <c r="D208" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E208" t="s" s="2">
+      <c r="E208" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F208" t="s" s="2">
+      <c r="F208" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G208" t="s" s="2">
+      <c r="G208" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H208" t="s" s="2">
+      <c r="H208" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I208" t="s" s="2">
+      <c r="I208" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6224,10 +6236,10 @@
       <c r="I211">
         <f>((C211-C210)^2+(D211- D210)^2)^.5</f>
       </c>
-      <c r="J211" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K211" s="2" t="s">
+      <c r="J211" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K211" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L211" t="n">
@@ -6271,28 +6283,28 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="s" s="2">
+      <c r="A213" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B213" t="s" s="2">
+      <c r="B213" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C213" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D213" t="s" s="2">
+      <c r="C213" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D213" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E213" t="s" s="2">
+      <c r="E213" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F213" t="s" s="2">
+      <c r="F213" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G213" t="s" s="2">
+      <c r="G213" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H213" t="s" s="2">
+      <c r="H213" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6317,28 +6329,28 @@
       </c>
     </row>
     <row r="215">
-      <c r="B215" t="s" s="2">
+      <c r="B215" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C215" t="s" s="2">
+      <c r="C215" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D215" t="s" s="2">
+      <c r="D215" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E215" t="s" s="2">
+      <c r="E215" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F215" t="s" s="2">
+      <c r="F215" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G215" t="s" s="2">
+      <c r="G215" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H215" t="s" s="2">
+      <c r="H215" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I215" t="s" s="2">
+      <c r="I215" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6513,10 +6525,10 @@
       <c r="I221">
         <f>((C221-C220)^2+(D221- D220)^2)^.5</f>
       </c>
-      <c r="J221" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K221" s="2" t="s">
+      <c r="J221" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K221" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L221" t="n">
@@ -6560,28 +6572,28 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" t="s" s="2">
+      <c r="A223" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B223" t="s" s="2">
+      <c r="B223" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C223" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D223" t="s" s="2">
+      <c r="C223" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D223" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E223" t="s" s="2">
+      <c r="E223" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F223" t="s" s="2">
+      <c r="F223" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G223" t="s" s="2">
+      <c r="G223" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H223" t="s" s="2">
+      <c r="H223" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6606,28 +6618,28 @@
       </c>
     </row>
     <row r="225">
-      <c r="B225" t="s" s="2">
+      <c r="B225" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C225" t="s" s="2">
+      <c r="C225" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D225" t="s" s="2">
+      <c r="D225" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E225" t="s" s="2">
+      <c r="E225" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F225" t="s" s="2">
+      <c r="F225" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G225" t="s" s="2">
+      <c r="G225" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H225" t="s" s="2">
+      <c r="H225" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I225" t="s" s="2">
+      <c r="I225" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6686,10 +6698,10 @@
       <c r="I227">
         <f>((C227-C226)^2+(D227- D226)^2)^.5</f>
       </c>
-      <c r="J227" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K227" s="2" t="s">
+      <c r="J227" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K227" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L227" t="n">
@@ -6733,28 +6745,28 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="s" s="2">
+      <c r="A229" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B229" t="s" s="2">
+      <c r="B229" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C229" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D229" t="s" s="2">
+      <c r="C229" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D229" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E229" t="s" s="2">
+      <c r="E229" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F229" t="s" s="2">
+      <c r="F229" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G229" t="s" s="2">
+      <c r="G229" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H229" t="s" s="2">
+      <c r="H229" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6779,28 +6791,28 @@
       </c>
     </row>
     <row r="231">
-      <c r="B231" t="s" s="2">
+      <c r="B231" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C231" t="s" s="2">
+      <c r="C231" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D231" t="s" s="2">
+      <c r="D231" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E231" t="s" s="2">
+      <c r="E231" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F231" t="s" s="2">
+      <c r="F231" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G231" t="s" s="2">
+      <c r="G231" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H231" t="s" s="2">
+      <c r="H231" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I231" t="s" s="2">
+      <c r="I231" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6888,10 +6900,10 @@
       <c r="I234">
         <f>((C234-C233)^2+(D234- D233)^2)^.5</f>
       </c>
-      <c r="J234" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K234" s="2" t="s">
+      <c r="J234" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K234" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L234" t="n">
@@ -6935,28 +6947,28 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="s" s="2">
+      <c r="A236" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B236" t="s" s="2">
+      <c r="B236" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C236" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D236" t="s" s="2">
+      <c r="C236" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D236" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E236" t="s" s="2">
+      <c r="E236" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F236" t="s" s="2">
+      <c r="F236" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G236" t="s" s="2">
+      <c r="G236" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H236" t="s" s="2">
+      <c r="H236" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6981,28 +6993,28 @@
       </c>
     </row>
     <row r="238">
-      <c r="B238" t="s" s="2">
+      <c r="B238" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C238" t="s" s="2">
+      <c r="C238" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D238" t="s" s="2">
+      <c r="D238" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E238" t="s" s="2">
+      <c r="E238" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F238" t="s" s="2">
+      <c r="F238" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G238" t="s" s="2">
+      <c r="G238" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H238" t="s" s="2">
+      <c r="H238" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I238" t="s" s="2">
+      <c r="I238" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7090,10 +7102,10 @@
       <c r="I241">
         <f>((C241-C240)^2+(D241- D240)^2)^.5</f>
       </c>
-      <c r="J241" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K241" s="2" t="s">
+      <c r="J241" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K241" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L241" t="n">
@@ -7137,28 +7149,28 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="s" s="2">
+      <c r="A243" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B243" t="s" s="2">
+      <c r="B243" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C243" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D243" t="s" s="2">
+      <c r="C243" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D243" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E243" t="s" s="2">
+      <c r="E243" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F243" t="s" s="2">
+      <c r="F243" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G243" t="s" s="2">
+      <c r="G243" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H243" t="s" s="2">
+      <c r="H243" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7183,28 +7195,28 @@
       </c>
     </row>
     <row r="245">
-      <c r="B245" t="s" s="2">
+      <c r="B245" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C245" t="s" s="2">
+      <c r="C245" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D245" t="s" s="2">
+      <c r="D245" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E245" t="s" s="2">
+      <c r="E245" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F245" t="s" s="2">
+      <c r="F245" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G245" t="s" s="2">
+      <c r="G245" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H245" t="s" s="2">
+      <c r="H245" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I245" t="s" s="2">
+      <c r="I245" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7292,10 +7304,10 @@
       <c r="I248">
         <f>((C248-C247)^2+(D248- D247)^2)^.5</f>
       </c>
-      <c r="J248" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K248" s="2" t="s">
+      <c r="J248" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K248" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L248" t="n">
@@ -7339,28 +7351,28 @@
       </c>
     </row>
     <row r="250">
-      <c r="A250" t="s" s="2">
+      <c r="A250" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B250" t="s" s="2">
+      <c r="B250" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C250" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D250" t="s" s="2">
+      <c r="C250" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D250" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E250" t="s" s="2">
+      <c r="E250" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F250" t="s" s="2">
+      <c r="F250" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G250" t="s" s="2">
+      <c r="G250" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H250" t="s" s="2">
+      <c r="H250" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7385,28 +7397,28 @@
       </c>
     </row>
     <row r="252">
-      <c r="B252" t="s" s="2">
+      <c r="B252" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C252" t="s" s="2">
+      <c r="C252" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D252" t="s" s="2">
+      <c r="D252" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E252" t="s" s="2">
+      <c r="E252" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F252" t="s" s="2">
+      <c r="F252" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G252" t="s" s="2">
+      <c r="G252" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H252" t="s" s="2">
+      <c r="H252" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I252" t="s" s="2">
+      <c r="I252" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7494,10 +7506,10 @@
       <c r="I255">
         <f>((C255-C254)^2+(D255- D254)^2)^.5</f>
       </c>
-      <c r="J255" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K255" s="2" t="s">
+      <c r="J255" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K255" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L255" t="n">
@@ -7541,28 +7553,28 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="s" s="2">
+      <c r="A257" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B257" t="s" s="2">
+      <c r="B257" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C257" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D257" t="s" s="2">
+      <c r="C257" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D257" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E257" t="s" s="2">
+      <c r="E257" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F257" t="s" s="2">
+      <c r="F257" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G257" t="s" s="2">
+      <c r="G257" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H257" t="s" s="2">
+      <c r="H257" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7587,28 +7599,28 @@
       </c>
     </row>
     <row r="259">
-      <c r="B259" t="s" s="2">
+      <c r="B259" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C259" t="s" s="2">
+      <c r="C259" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D259" t="s" s="2">
+      <c r="D259" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E259" t="s" s="2">
+      <c r="E259" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F259" t="s" s="2">
+      <c r="F259" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G259" t="s" s="2">
+      <c r="G259" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H259" t="s" s="2">
+      <c r="H259" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I259" t="s" s="2">
+      <c r="I259" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7667,10 +7679,10 @@
       <c r="I261">
         <f>((C261-C260)^2+(D261- D260)^2)^.5</f>
       </c>
-      <c r="J261" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K261" s="2" t="s">
+      <c r="J261" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K261" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L261" t="n">
